--- a/script_master_data/ficherosExcelOrigen/DED-Digitalización_Adopcion IA_v2a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-Digitalización_Adopcion IA_v2a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C929DCA-D5FD-4CA8-AA7B-274978508E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66747BAC-07E1-4C0D-B49B-9E7570CF8588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Reporte" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$178</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -19630,6 +19630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:AS196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -21438,7 +21439,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="121"/>
       <c r="D32" s="10"/>
@@ -21489,7 +21490,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="121"/>
       <c r="D33" s="10"/>
@@ -21540,7 +21541,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="121"/>
       <c r="D34" s="10"/>
@@ -21591,7 +21592,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="121"/>
       <c r="D35" s="10"/>
@@ -21642,7 +21643,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="121"/>
       <c r="D36" s="10"/>
@@ -21693,7 +21694,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="121"/>
       <c r="D37" s="10"/>
@@ -21744,7 +21745,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="121"/>
       <c r="D38" s="10"/>
@@ -21795,7 +21796,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="121"/>
       <c r="D39" s="10"/>
@@ -21846,7 +21847,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="121"/>
       <c r="D40" s="10"/>
@@ -21897,7 +21898,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="121"/>
       <c r="D41" s="10"/>
@@ -21948,7 +21949,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="121"/>
       <c r="D42" s="10"/>
@@ -21999,7 +22000,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="121"/>
       <c r="D43" s="10"/>
@@ -22050,7 +22051,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="121"/>
       <c r="D44" s="10"/>
@@ -22101,7 +22102,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="121"/>
       <c r="D45" s="10"/>
@@ -22152,7 +22153,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="121"/>
       <c r="D46" s="10"/>
@@ -22203,7 +22204,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="121"/>
       <c r="D47" s="10"/>
@@ -22254,7 +22255,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="121"/>
       <c r="D48" s="10"/>
@@ -22305,7 +22306,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="C49" s="121"/>
       <c r="D49" s="10"/>
@@ -22356,7 +22357,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="121"/>
       <c r="D50" s="10"/>
@@ -22407,7 +22408,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="121"/>
       <c r="D51" s="10"/>
@@ -22458,7 +22459,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="121"/>
       <c r="D52" s="10"/>
@@ -22509,7 +22510,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="121"/>
       <c r="D53" s="10"/>
@@ -22560,7 +22561,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
       <c r="C54" s="121"/>
       <c r="D54" s="10"/>
@@ -22611,7 +22612,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="121"/>
       <c r="D55" s="10"/>
@@ -22662,7 +22663,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="121"/>
       <c r="D56" s="10"/>
@@ -22713,7 +22714,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="121"/>
       <c r="D57" s="10"/>
@@ -22764,7 +22765,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="121"/>
       <c r="D58" s="10"/>
@@ -22815,7 +22816,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="121"/>
       <c r="D59" s="10"/>
@@ -22866,7 +22867,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="121"/>
       <c r="D60" s="10"/>
@@ -22917,7 +22918,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="121"/>
       <c r="D61" s="10"/>
@@ -22968,7 +22969,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="121"/>
       <c r="D62" s="10"/>
@@ -23019,7 +23020,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="121"/>
       <c r="D63" s="10"/>
@@ -23070,7 +23071,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="121"/>
       <c r="D64" s="10"/>
@@ -23121,7 +23122,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="121"/>
       <c r="D65" s="10"/>
@@ -23172,7 +23173,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="121"/>
       <c r="D66" s="10"/>
@@ -23223,7 +23224,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="121"/>
       <c r="D67" s="10"/>
@@ -23274,7 +23275,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="121"/>
       <c r="D68" s="10"/>
@@ -23325,7 +23326,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="121"/>
       <c r="D69" s="10"/>
@@ -23376,7 +23377,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="121"/>
       <c r="D70" s="10"/>
@@ -23427,7 +23428,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="121"/>
       <c r="D71" s="10"/>
@@ -23478,7 +23479,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="121"/>
       <c r="D72" s="10"/>
@@ -23529,7 +23530,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="121"/>
       <c r="D73" s="10"/>
@@ -23580,7 +23581,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="121"/>
       <c r="D74" s="10"/>
@@ -23631,7 +23632,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="121"/>
       <c r="D75" s="10"/>
@@ -23682,7 +23683,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="121"/>
       <c r="D76" s="10"/>
@@ -23733,7 +23734,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="121"/>
       <c r="D77" s="10"/>
@@ -23784,7 +23785,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="121"/>
       <c r="D78" s="10"/>
@@ -23835,7 +23836,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="121"/>
       <c r="D79" s="10"/>
@@ -23886,7 +23887,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="121"/>
       <c r="D80" s="10"/>
@@ -23937,7 +23938,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="121"/>
       <c r="D81" s="10"/>
@@ -23988,7 +23989,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="121"/>
       <c r="D82" s="10"/>
@@ -24039,7 +24040,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="121"/>
       <c r="D83" s="10"/>
@@ -24090,7 +24091,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="121"/>
       <c r="D84" s="10"/>
@@ -24141,7 +24142,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="121"/>
       <c r="D85" s="10"/>
@@ -24192,7 +24193,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="121"/>
       <c r="D86" s="10"/>
@@ -24243,7 +24244,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="121"/>
       <c r="D87" s="10"/>
@@ -24294,7 +24295,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="121"/>
       <c r="D88" s="10"/>
@@ -24345,7 +24346,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="121"/>
       <c r="D89" s="10"/>
@@ -24396,7 +24397,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="121"/>
       <c r="D90" s="10"/>
@@ -24447,7 +24448,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="121"/>
       <c r="D91" s="10"/>
@@ -24498,7 +24499,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="121"/>
       <c r="D92" s="10"/>
@@ -24549,7 +24550,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="121"/>
       <c r="D93" s="10"/>
@@ -24600,7 +24601,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="121"/>
       <c r="D94" s="10"/>
@@ -24651,7 +24652,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="121"/>
       <c r="D95" s="10"/>
@@ -24702,7 +24703,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="121"/>
       <c r="D96" s="10"/>
@@ -24753,7 +24754,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="121"/>
       <c r="D97" s="10"/>
@@ -24804,7 +24805,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="121"/>
       <c r="D98" s="10"/>
@@ -24855,7 +24856,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="121"/>
       <c r="D99" s="10"/>
@@ -24906,7 +24907,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="121"/>
       <c r="D100" s="10"/>
@@ -24957,7 +24958,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="121"/>
       <c r="D101" s="10"/>
@@ -25008,7 +25009,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="121"/>
       <c r="D102" s="10"/>
@@ -25059,7 +25060,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="121"/>
       <c r="D103" s="10"/>
@@ -25110,7 +25111,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="121"/>
       <c r="D104" s="10"/>
@@ -25161,7 +25162,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="121"/>
       <c r="D105" s="10"/>
@@ -25212,7 +25213,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="121"/>
       <c r="D106" s="10"/>
@@ -25263,7 +25264,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="121"/>
       <c r="D107" s="10"/>
@@ -25314,7 +25315,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="121"/>
       <c r="D108" s="10"/>
@@ -25365,7 +25366,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="121"/>
       <c r="D109" s="10"/>
@@ -25416,7 +25417,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="121"/>
       <c r="D110" s="10"/>
@@ -25467,7 +25468,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="121"/>
       <c r="D111" s="10"/>
@@ -25518,7 +25519,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="121"/>
       <c r="D112" s="10"/>
@@ -25569,7 +25570,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="121"/>
       <c r="D113" s="10"/>
@@ -25620,7 +25621,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="121"/>
       <c r="D114" s="10"/>
@@ -25671,7 +25672,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="121"/>
       <c r="D115" s="10"/>
@@ -25722,7 +25723,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="121"/>
       <c r="D116" s="10"/>
@@ -25773,7 +25774,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="121"/>
       <c r="D117" s="10"/>
@@ -25824,7 +25825,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="121"/>
       <c r="D118" s="10"/>
@@ -25875,7 +25876,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="121"/>
       <c r="D119" s="10"/>
@@ -25926,7 +25927,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="121"/>
       <c r="D120" s="10"/>
@@ -25977,7 +25978,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="121"/>
       <c r="D121" s="10"/>
@@ -26028,7 +26029,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="121"/>
       <c r="D122" s="10"/>
@@ -26079,7 +26080,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="121"/>
       <c r="D123" s="10"/>
@@ -26130,7 +26131,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="121"/>
       <c r="D124" s="10"/>
@@ -26181,7 +26182,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="121"/>
       <c r="D125" s="10"/>
@@ -26232,7 +26233,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="121"/>
       <c r="D126" s="10"/>
@@ -26283,7 +26284,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="121"/>
       <c r="D127" s="10"/>
@@ -26334,7 +26335,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="121"/>
       <c r="D128" s="10"/>
@@ -26385,7 +26386,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="121"/>
       <c r="D129" s="10"/>
@@ -26436,7 +26437,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="121"/>
       <c r="D130" s="10"/>
@@ -26487,7 +26488,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="121"/>
       <c r="D131" s="10"/>
@@ -26538,7 +26539,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="121"/>
       <c r="D132" s="10"/>
@@ -26589,7 +26590,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="121"/>
       <c r="D133" s="10"/>
@@ -26640,7 +26641,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="121"/>
       <c r="D134" s="10"/>
@@ -26691,7 +26692,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="121"/>
       <c r="D135" s="10"/>
@@ -26742,7 +26743,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="121"/>
       <c r="D136" s="10"/>
@@ -26793,7 +26794,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="121"/>
       <c r="D137" s="10"/>
@@ -26844,7 +26845,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="121"/>
       <c r="D138" s="10"/>
@@ -26895,7 +26896,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="121"/>
       <c r="D139" s="10"/>
@@ -26946,7 +26947,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="121"/>
       <c r="D140" s="10"/>
@@ -26997,7 +26998,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="121"/>
       <c r="D141" s="10"/>
@@ -27048,7 +27049,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="121"/>
       <c r="D142" s="10"/>
@@ -27099,7 +27100,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="121"/>
       <c r="D143" s="10"/>
@@ -27150,7 +27151,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="121"/>
       <c r="D144" s="10"/>
@@ -27201,7 +27202,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="121"/>
       <c r="D145" s="10"/>
@@ -27252,7 +27253,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="121"/>
       <c r="D146" s="10"/>
@@ -27303,7 +27304,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="121"/>
       <c r="D147" s="10"/>
@@ -27354,7 +27355,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="121"/>
       <c r="D148" s="10"/>
@@ -27405,7 +27406,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="121"/>
       <c r="D149" s="10"/>
@@ -27456,7 +27457,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="121"/>
       <c r="D150" s="10"/>
@@ -27507,7 +27508,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="121"/>
       <c r="D151" s="10"/>
@@ -27558,7 +27559,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="121"/>
       <c r="D152" s="10"/>
@@ -27609,7 +27610,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="121"/>
       <c r="D153" s="10"/>
@@ -27660,7 +27661,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="121"/>
       <c r="D154" s="10"/>
@@ -27711,7 +27712,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="121"/>
       <c r="D155" s="10"/>
@@ -27762,7 +27763,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="121"/>
       <c r="D156" s="10"/>
@@ -27813,7 +27814,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="121"/>
       <c r="D157" s="10"/>
@@ -27864,7 +27865,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="121"/>
       <c r="D158" s="10"/>
@@ -27915,7 +27916,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="121"/>
       <c r="D159" s="10"/>
@@ -27966,7 +27967,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="121"/>
       <c r="D160" s="10"/>
@@ -28017,7 +28018,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="121"/>
       <c r="D161" s="10"/>
@@ -28068,7 +28069,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="121"/>
       <c r="D162" s="10"/>
@@ -28119,7 +28120,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="121"/>
       <c r="D163" s="10"/>
@@ -28170,7 +28171,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="121"/>
       <c r="D164" s="10"/>
@@ -28221,7 +28222,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="121"/>
       <c r="D165" s="10"/>
@@ -28272,7 +28273,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="121"/>
       <c r="D166" s="10"/>
@@ -28323,7 +28324,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="121"/>
       <c r="D167" s="10"/>
@@ -28374,7 +28375,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="121"/>
       <c r="D168" s="10"/>
@@ -28425,7 +28426,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="121"/>
       <c r="D169" s="10"/>
@@ -28476,7 +28477,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="121"/>
       <c r="D170" s="10"/>
@@ -28527,7 +28528,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="121"/>
       <c r="D171" s="10"/>
@@ -28578,7 +28579,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="121"/>
       <c r="D172" s="10"/>
@@ -28629,7 +28630,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="121"/>
       <c r="D173" s="10"/>
@@ -28680,7 +28681,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="121"/>
       <c r="D174" s="10"/>
@@ -28731,7 +28732,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="121"/>
       <c r="D175" s="10"/>
@@ -28782,7 +28783,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="121"/>
       <c r="D176" s="10"/>
@@ -28833,7 +28834,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="121"/>
       <c r="D177" s="10"/>
@@ -28884,7 +28885,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="121"/>
       <c r="D178" s="10"/>
@@ -29746,7 +29747,13 @@
       <c r="AR196" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="AL6:AM7 M6:N7 R6:S7 W6:X7 AB6:AC7 AG6:AH7 H6:I7">
     <cfRule type="expression" dxfId="14" priority="67">
       <formula>AND(G6="S",H6="")</formula>
@@ -33533,29 +33540,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -33756,25 +33740,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE25A9B-8CA0-467E-B9B8-6D42DE233631}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33791,4 +33780,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>